--- a/sequences/16_localizer.xlsx
+++ b/sequences/16_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>car</t>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
   </si>
   <si>
     <t>face/face013.png</t>
   </si>
   <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
     <t>flower/flower007.png</t>
   </si>
   <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
     <t>dog/dog008.png</t>
   </si>
   <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
+    <t>face/face029.png</t>
   </si>
   <si>
     <t>face/face017.png</t>
   </si>
   <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
     <t>face/face025.png</t>
   </si>
   <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
     <t>dog/dog023.png</t>
   </si>
   <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
     <t>flower/flower021.png</t>
   </si>
   <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
     <t>car/car018.png</t>
   </si>
   <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
     <t>face/face030.png</t>
   </si>
   <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
   </si>
   <si>
     <t>car/car032.png</t>
   </si>
   <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
     <t>dog/dog046.png</t>
   </si>
   <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
   </si>
   <si>
     <t>face/face039.png</t>
   </si>
   <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
   </si>
   <si>
     <t>car/car040.png</t>
   </si>
   <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
   </si>
   <si>
     <t>dog/dog036.png</t>
   </si>
   <si>
-    <t>face/face043.png</t>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
   </si>
   <si>
     <t>face/face038.png</t>
   </si>
   <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
     <t>dog/dog041.png</t>
   </si>
   <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
   </si>
   <si>
     <t>dog/dog051.png</t>
   </si>
   <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
     <t>flower/flower063.png</t>
   </si>
   <si>
-    <t>flower/flower049.png</t>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
   </si>
   <si>
     <t>car/car050.png</t>
   </si>
   <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
   </si>
   <si>
     <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.29213812685713</v>
+        <v>1.40714725863252</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.576885145334098</v>
+        <v>1.677520766674305</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.539805863413119</v>
+        <v>1.770947283205642</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.553413579038884</v>
+        <v>1.685605788766475</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.488611389279844</v>
+        <v>1.524922838408151</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.370462172980916</v>
+        <v>1.416402852004685</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.427675773756949</v>
+        <v>1.723196928504579</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.585290989979819</v>
+        <v>1.41500185136154</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.499549343154358</v>
+        <v>1.543927579496172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.391966649853224</v>
+        <v>1.335008632021653</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.591231611972134</v>
+        <v>1.812330386954426</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.317293881218165</v>
+        <v>1.392781365598952</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.373842176078429</v>
+        <v>1.526689266954563</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.684956507967376</v>
+        <v>1.391812396508983</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.434734678184096</v>
+        <v>1.70018111144159</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.594609208513001</v>
+        <v>1.553144999525465</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.795201729288649</v>
+        <v>1.397945760514957</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.739297903832098</v>
+        <v>1.587762290283788</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.736786015916693</v>
+        <v>1.387005357669463</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.739613583343411</v>
+        <v>1.474469877839216</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.635446616787291</v>
+        <v>1.711081225053058</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.677054653515133</v>
+        <v>1.506029799840547</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.59357476642073</v>
+        <v>1.478543827280409</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1.519682640209305</v>
+        <v>1.392519770973041</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.627030324071577</v>
+        <v>1.544449813121469</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.457201613728092</v>
+        <v>1.57202008733804</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.475265381975044</v>
+        <v>1.420412504238775</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.490810245287579</v>
+        <v>1.799172826097756</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.385086844702365</v>
+        <v>1.528072839275735</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.548403345170747</v>
+        <v>1.465225934895376</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.563828285755469</v>
+        <v>1.754401526131313</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.58190751787067</v>
+        <v>1.235311739248314</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.319447075612461</v>
+        <v>1.70930768482817</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.615144839822351</v>
+        <v>1.552126094560585</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.49505992126051</v>
+        <v>1.412522300081476</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.554458561481944</v>
+        <v>1.775677234724694</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.516615102885889</v>
+        <v>1.328758814794249</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.522201184426841</v>
+        <v>1.595940241663638</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.490526490219033</v>
+        <v>1.562777268435224</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.463494796100833</v>
+        <v>1.624380747770209</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.565651712754293</v>
+        <v>1.701447769226593</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.492855679805962</v>
+        <v>1.409208011595672</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.428675091048717</v>
+        <v>1.536004775946152</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.467022240793745</v>
+        <v>1.505671799809356</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.721074329413785</v>
+        <v>1.587760123630803</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.56949614993677</v>
+        <v>1.626708237757589</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.476522129221267</v>
+        <v>1.326600284301734</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.63749928488759</v>
+        <v>1.533041833014424</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.475567217330674</v>
+        <v>1.319728889385938</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.332656409151218</v>
+        <v>1.483887492110804</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.50557760925044</v>
+        <v>1.603799133339006</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.73429378286466</v>
+        <v>1.582052770694998</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.454654966454506</v>
+        <v>1.690484666499235</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.663453619817652</v>
+        <v>1.30906879636275</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.557159169978705</v>
+        <v>1.37829741501894</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.459038923293447</v>
+        <v>1.19204871832902</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.552007900792649</v>
+        <v>1.427163867568719</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.48911452795903</v>
+        <v>1.378378393821529</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.667008753142208</v>
+        <v>1.614219029007796</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.389899864599941</v>
+        <v>1.678579528989792</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.394285331443847</v>
+        <v>1.435559002011888</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.377319263100555</v>
+        <v>1.403671494780262</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.5303820574197</v>
+        <v>1.477123989694542</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.489279998211006</v>
+        <v>1.616234509246676</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.154447877533057</v>
+        <v>1.153838043660594</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.683318097925928</v>
+        <v>1.270131993196627</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.501872616414026</v>
+        <v>1.399495477606044</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.705495473267645</v>
+        <v>1.644887227358438</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.177891947858887</v>
+        <v>1.471788606175354</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.476788411501609</v>
+        <v>1.64534577557424</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.361222277109618</v>
+        <v>1.416081507693553</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.441969500249316</v>
+        <v>1.582622115699633</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.398848887410734</v>
+        <v>1.262782710404803</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.406166867831908</v>
+        <v>1.338445386707793</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.389594131522217</v>
+        <v>1.342804379002084</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.509247851529552</v>
+        <v>1.322785366042819</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.424721388110665</v>
+        <v>1.618913494161152</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.477733755244666</v>
+        <v>1.5646855697649</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.590773500378022</v>
+        <v>1.331382933098779</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.630833142634872</v>
+        <v>1.345149924578086</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.81120551327576</v>
+        <v>1.622057741453001</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.471190146459823</v>
+        <v>1.485753878713184</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.499839595112986</v>
+        <v>1.475225122251414</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.571696195502375</v>
+        <v>1.449694620502971</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.745209180184059</v>
+        <v>1.586623546342718</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.378306024738843</v>
+        <v>1.677881390579093</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.569661952874632</v>
+        <v>1.528802251237689</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.538004482439894</v>
+        <v>1.416116577237664</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.325369537078885</v>
+        <v>1.51617377169573</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.275142099475134</v>
+        <v>1.445962800953361</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.628616623118917</v>
+        <v>1.694053892175224</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.478255155652302</v>
+        <v>1.893720230484174</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>1.35188286298103</v>
+        <v>1.530609191111682</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.580166356347225</v>
+        <v>1.559036807389809</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.54639344983637</v>
+        <v>1.403477236790069</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.417417046092072</v>
+        <v>1.518680297192512</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.442149616641767</v>
+        <v>1.553195666410071</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.599804796369738</v>
+        <v>1.472831757728942</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.5029191335206</v>
+        <v>1.584886150185425</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.474770097984346</v>
+        <v>1.579344495022607</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.386856890393855</v>
+        <v>1.43580377330836</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.317971087145288</v>
+        <v>1.323358837743625</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.353092037055049</v>
+        <v>1.748663322489783</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.569319271892803</v>
+        <v>1.31678080164756</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.670301982759157</v>
+        <v>1.291220529158594</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.341801239803325</v>
+        <v>1.613345373105973</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.671904301803822</v>
+        <v>1.658326618776109</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.594485744125969</v>
+        <v>1.436182470790054</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.449983331171617</v>
+        <v>1.407490435386835</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.307709527873401</v>
+        <v>1.49670555250345</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.631595727894927</v>
+        <v>1.350256569284256</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.550611579000978</v>
+        <v>1.356924714671123</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.342805273807161</v>
+        <v>1.349061806336644</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.591711060525686</v>
+        <v>1.58368160675622</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.596294329080044</v>
+        <v>1.477893735210062</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>1.634318857276169</v>
+        <v>1.334749561481277</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.655194607017991</v>
+        <v>1.476344970641144</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.319546875993666</v>
+        <v>1.521372071226898</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.606144797861677</v>
+        <v>1.366792055954573</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.639982545452706</v>
+        <v>1.560405064370302</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.260217056830957</v>
+        <v>1.50821897492198</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>1.376211689544659</v>
+        <v>1.622101192161734</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.446052271154906</v>
+        <v>1.435606257515029</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.648481594671561</v>
+        <v>1.646627069570355</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.574242385885299</v>
+        <v>1.238790101743587</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.534827165353104</v>
+        <v>1.551284186874878</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.581234528876158</v>
+        <v>1.493687006566848</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.623950352934725</v>
+        <v>1.454560186961869</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.746196424905237</v>
+        <v>1.474399603623826</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>1.597599063052282</v>
+        <v>1.495432497004704</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.456264613846052</v>
+        <v>1.527051042049768</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.463856674628049</v>
+        <v>1.334042777949498</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.572852931645175</v>
+        <v>1.434688948341461</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.559175663373405</v>
+        <v>1.719221396765912</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.450118174509303</v>
+        <v>1.666877507254656</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.679389941896883</v>
+        <v>1.302793710971336</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.332673803902527</v>
+        <v>1.498138895182034</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.53612705633369</v>
+        <v>1.272193368476534</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.234400081643282</v>
+        <v>1.677893627859672</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.440853569281468</v>
+        <v>1.583514503183316</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.536025104465545</v>
+        <v>1.419814982575972</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.579087641016021</v>
+        <v>1.288594930936328</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.339114194889146</v>
+        <v>1.342213935620638</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.574415795243232</v>
+        <v>1.437569913776225</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.463788059977555</v>
+        <v>1.355221823598582</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.416357585133883</v>
+        <v>1.398350438192186</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.735053348136212</v>
+        <v>1.662007344800337</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.385577992536002</v>
+        <v>1.523749029963414</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.366605035147976</v>
+        <v>1.582423027612289</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.356618979228689</v>
+        <v>1.26184825034231</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.401116183527187</v>
+        <v>1.383927579512579</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.754464152087064</v>
+        <v>1.687941737045447</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.617427971890181</v>
+        <v>1.340545067127596</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.713932838729732</v>
+        <v>1.671542852118172</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.534704917823235</v>
+        <v>1.453965801397803</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.421074624687558</v>
+        <v>1.594336459573477</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.344175106934339</v>
+        <v>1.467745697456729</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.63049730345411</v>
+        <v>1.577587396321565</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.455809823990054</v>
+        <v>1.3408930306866</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.449782932304247</v>
+        <v>1.474040443715789</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.660465523906858</v>
+        <v>1.338034338841452</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="F163">
-        <v>1.50868961140169</v>
+        <v>1.718738940061195</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.584074989537427</v>
+        <v>1.378555849110306</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.474999882672115</v>
+        <v>1.38850961181218</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.757618230470815</v>
+        <v>1.646909311238471</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.736883598547209</v>
+        <v>1.583433844367169</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.829673707358191</v>
+        <v>1.441981327264894</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.392932729753879</v>
+        <v>1.604077382161328</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.435135907622827</v>
+        <v>1.515711445309762</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.363152780890394</v>
+        <v>1.647663986439853</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.593537221341612</v>
+        <v>1.535167188151547</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.164326399679195</v>
+        <v>1.392674011554087</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.363307537962058</v>
+        <v>1.620690428454194</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.650957123703844</v>
+        <v>1.529464799982826</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.693363041646278</v>
+        <v>1.259406890930756</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.631255207334452</v>
+        <v>1.270043811820624</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.60718054795756</v>
+        <v>1.376050799159631</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.534553666235547</v>
+        <v>1.604458699107524</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.600468294070446</v>
+        <v>1.420078451505731</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.481750479088639</v>
+        <v>1.638522523237605</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.432318073046492</v>
+        <v>1.671143140816152</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.612068423778391</v>
+        <v>1.445188664975923</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.342936705276829</v>
+        <v>1.371260862012163</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.326738665358714</v>
+        <v>1.602860426888613</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.544919187865547</v>
+        <v>1.617178012590198</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.464124892092959</v>
+        <v>1.718441740196839</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.612204941349597</v>
+        <v>1.482017880039079</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.517865232827758</v>
+        <v>1.710023756400069</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.62496549469101</v>
+        <v>1.478400308441346</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.46342769028241</v>
+        <v>1.746356957311375</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.801529284821076</v>
+        <v>1.513655423670672</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.247851884189795</v>
+        <v>1.719460743055286</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.413585176701114</v>
+        <v>1.548520019350065</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.342923866018594</v>
+        <v>1.529947170066237</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.535299506785448</v>
+        <v>1.245342363495426</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.434218857052121</v>
+        <v>1.413006054434365</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.306948729122914</v>
+        <v>1.455177999865685</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.294835214593185</v>
+        <v>1.503382855402343</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.454752382500584</v>
+        <v>1.484103452994133</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.383449288568342</v>
+        <v>1.670143240735865</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.857520742223906</v>
+        <v>1.618965643651306</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.631260166318764</v>
+        <v>1.658583670866035</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.579398263327813</v>
+        <v>1.301293429084322</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>1.393482048850172</v>
+        <v>1.296151529664733</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.407948306912471</v>
+        <v>1.423100890745544</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.345451081310797</v>
+        <v>1.510937163735083</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.458380590355698</v>
+        <v>1.251330255452408</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.503966966070965</v>
+        <v>1.395143481953554</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.401753147265532</v>
+        <v>1.675031700559303</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.398662367240787</v>
+        <v>1.376806938798852</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.463649678922186</v>
+        <v>1.645802724205859</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.478594127985688</v>
+        <v>1.333235669152612</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.591017112553275</v>
+        <v>1.565465117923605</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.404754070140605</v>
+        <v>1.488526641913426</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.362583879342733</v>
+        <v>1.60783601508989</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.216322747845623</v>
+        <v>1.476493741339911</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.443249857298935</v>
+        <v>1.495085150264525</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.392644119736711</v>
+        <v>1.474465654759985</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.534075879643932</v>
+        <v>1.822381485179061</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.196141844349203</v>
+        <v>1.481485586818571</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.701973637574553</v>
+        <v>1.784153599102338</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>1.662079768174527</v>
+        <v>1.480441404524401</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.494245375507601</v>
+        <v>1.683068934387362</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.540240427728334</v>
+        <v>1.372838655457232</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.538754387242959</v>
+        <v>1.549124727739412</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.308992238921851</v>
+        <v>1.298113046246859</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.487357577416248</v>
+        <v>1.34703963451932</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.524412520184991</v>
+        <v>1.419259507834642</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.739817127031865</v>
+        <v>1.593822659985086</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.402420091299704</v>
+        <v>1.414718329191924</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.439536430137272</v>
+        <v>1.431729113876639</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.416909284726478</v>
+        <v>1.382172025487349</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.541506341054034</v>
+        <v>1.474029399748433</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.61186615615134</v>
+        <v>1.443207623291849</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.225690494599247</v>
+        <v>1.610888975999789</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.391405348878185</v>
+        <v>1.6261837861509</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.616951450998912</v>
+        <v>1.557708765849437</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.457789400567316</v>
+        <v>1.28443615986651</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.587951142596157</v>
+        <v>1.32613817558537</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.558764605006568</v>
+        <v>1.481463689012694</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.521585229160958</v>
+        <v>1.518133461073064</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.401414432215517</v>
+        <v>1.842629752359119</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.530321310975953</v>
+        <v>1.429835538738504</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.358749963610407</v>
+        <v>1.418390015243754</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.413653421003222</v>
+        <v>1.693035407260417</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.537339212036748</v>
+        <v>1.544818501684378</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.753360920654633</v>
+        <v>1.398371126315955</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.210845484779001</v>
+        <v>1.393231478232447</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.59936663237899</v>
+        <v>1.552104664379824</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.538908459592995</v>
+        <v>1.356341642297465</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.410020280700206</v>
+        <v>1.772084155464755</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.690817808835757</v>
+        <v>1.488854300835943</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.465912051768231</v>
+        <v>1.449563194040728</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.949038296759567</v>
+        <v>1.664391158781669</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.649443173398569</v>
+        <v>1.758530423898317</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.62557976277535</v>
+        <v>1.522377959456561</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/16_localizer.xlsx
+++ b/sequences/16_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
-    <t>car</t>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.40714725863252</v>
+        <v>1.571295741273105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.677520766674305</v>
+        <v>1.176196348391896</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.770947283205642</v>
+        <v>1.614535967994022</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.685605788766475</v>
+        <v>1.554122546571185</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.524922838408151</v>
+        <v>1.444309100374207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.416402852004685</v>
+        <v>1.400739739363323</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.723196928504579</v>
+        <v>1.638304905738302</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.41500185136154</v>
+        <v>1.449469195259759</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.543927579496172</v>
+        <v>1.424415596683288</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.335008632021653</v>
+        <v>1.665809801768146</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.812330386954426</v>
+        <v>1.751662759032523</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.392781365598952</v>
+        <v>1.34968813228828</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.526689266954563</v>
+        <v>1.761102387843417</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.391812396508983</v>
+        <v>1.640344531102334</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.70018111144159</v>
+        <v>1.245429094485594</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.553144999525465</v>
+        <v>1.439815562908124</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.397945760514957</v>
+        <v>1.436612961464814</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.587762290283788</v>
+        <v>1.499289170974936</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.387005357669463</v>
+        <v>1.507369085604522</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.474469877839216</v>
+        <v>1.316123196253223</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.711081225053058</v>
+        <v>1.580437470984558</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.506029799840547</v>
+        <v>1.564262558631881</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.478543827280409</v>
+        <v>1.573681789002823</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.392519770973041</v>
+        <v>1.576865168295094</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.544449813121469</v>
+        <v>1.306626410366367</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.57202008733804</v>
+        <v>1.550001297224429</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.420412504238775</v>
+        <v>1.64900032108545</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.799172826097756</v>
+        <v>1.450365336369267</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.528072839275735</v>
+        <v>1.51131668260594</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.465225934895376</v>
+        <v>1.830184315430991</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.754401526131313</v>
+        <v>1.372817786719849</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.235311739248314</v>
+        <v>1.35935651947739</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.70930768482817</v>
+        <v>1.537274851921471</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.552126094560585</v>
+        <v>1.401745996029018</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.412522300081476</v>
+        <v>1.348942741559245</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.775677234724694</v>
+        <v>1.50231025531276</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.328758814794249</v>
+        <v>1.578810247024888</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.595940241663638</v>
+        <v>1.602127345472059</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.562777268435224</v>
+        <v>1.485398239091837</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.624380747770209</v>
+        <v>1.217364034570865</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.701447769226593</v>
+        <v>1.402113471393427</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.409208011595672</v>
+        <v>1.347594775290259</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.536004775946152</v>
+        <v>1.612376920465171</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.505671799809356</v>
+        <v>1.419223782442518</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.587760123630803</v>
+        <v>1.322825579077802</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.626708237757589</v>
+        <v>1.477103056578315</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.326600284301734</v>
+        <v>1.553309676055308</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.533041833014424</v>
+        <v>1.847441404177445</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.319728889385938</v>
+        <v>1.379827455359135</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.483887492110804</v>
+        <v>1.464193481676011</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.603799133339006</v>
+        <v>1.430032253977228</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.582052770694998</v>
+        <v>1.453192073378835</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.690484666499235</v>
+        <v>1.629121219375789</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.30906879636275</v>
+        <v>1.688971815739082</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.37829741501894</v>
+        <v>1.276703635754676</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.19204871832902</v>
+        <v>1.402778335119511</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.427163867568719</v>
+        <v>1.490843199898723</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.378378393821529</v>
+        <v>1.526260337305332</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.614219029007796</v>
+        <v>1.567365305425144</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.678579528989792</v>
+        <v>1.458324327360015</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.435559002011888</v>
+        <v>1.649635263283514</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.403671494780262</v>
+        <v>1.380711969338546</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.477123989694542</v>
+        <v>1.62392212868505</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.616234509246676</v>
+        <v>1.52926193158329</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.153838043660594</v>
+        <v>1.840264188583909</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.270131993196627</v>
+        <v>1.519106404420753</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.399495477606044</v>
+        <v>1.240705984147292</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.644887227358438</v>
+        <v>1.600960455341862</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.471788606175354</v>
+        <v>1.194828319745745</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.64534577557424</v>
+        <v>1.398705827911699</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.416081507693553</v>
+        <v>1.632136805383614</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.582622115699633</v>
+        <v>1.712214562565598</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.262782710404803</v>
+        <v>1.459838817241282</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.338445386707793</v>
+        <v>1.402912419574078</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.342804379002084</v>
+        <v>1.65087571824588</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.322785366042819</v>
+        <v>1.551242478233384</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.618913494161152</v>
+        <v>1.534202887047102</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.5646855697649</v>
+        <v>1.547748859767588</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.331382933098779</v>
+        <v>1.29030937493905</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.345149924578086</v>
+        <v>1.187431224732937</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.622057741453001</v>
+        <v>1.661842652500043</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.485753878713184</v>
+        <v>1.497332586520325</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.475225122251414</v>
+        <v>1.537575653245721</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.449694620502971</v>
+        <v>1.507197525054225</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.586623546342718</v>
+        <v>1.369871151347281</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.677881390579093</v>
+        <v>1.412197672818897</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.528802251237689</v>
+        <v>1.280513307527588</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.416116577237664</v>
+        <v>1.55667188053173</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.51617377169573</v>
+        <v>1.455919517900188</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.445962800953361</v>
+        <v>1.567547096947299</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.694053892175224</v>
+        <v>1.722578247792145</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.893720230484174</v>
+        <v>1.667180340300386</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.530609191111682</v>
+        <v>1.55953686852151</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.559036807389809</v>
+        <v>1.645313475396914</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.403477236790069</v>
+        <v>1.592967918469464</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.518680297192512</v>
+        <v>1.322445051553172</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.553195666410071</v>
+        <v>1.585136216434634</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.472831757728942</v>
+        <v>1.1783587885295</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.584886150185425</v>
+        <v>1.578061222117331</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.579344495022607</v>
+        <v>1.574676546273673</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.43580377330836</v>
+        <v>1.40855901142621</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.323358837743625</v>
+        <v>1.36551298778956</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.748663322489783</v>
+        <v>1.691377547479696</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.31678080164756</v>
+        <v>1.629362910085754</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.291220529158594</v>
+        <v>1.28094213426256</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.613345373105973</v>
+        <v>1.494380709483545</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.658326618776109</v>
+        <v>1.511492217622914</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.436182470790054</v>
+        <v>1.587359370365769</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.407490435386835</v>
+        <v>1.512410472925044</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.49670555250345</v>
+        <v>1.461755763561712</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.350256569284256</v>
+        <v>1.326967786416696</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.356924714671123</v>
+        <v>1.787925977122375</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.349061806336644</v>
+        <v>1.504994953355563</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.58368160675622</v>
+        <v>1.689344079673469</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.477893735210062</v>
+        <v>1.625663978065496</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.334749561481277</v>
+        <v>1.577363563489971</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.476344970641144</v>
+        <v>1.429123211915581</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.521372071226898</v>
+        <v>1.750643503626534</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.366792055954573</v>
+        <v>1.497264934106955</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.560405064370302</v>
+        <v>1.53520788889261</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.50821897492198</v>
+        <v>1.567084099081359</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.622101192161734</v>
+        <v>1.643947627774675</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.435606257515029</v>
+        <v>1.573340945053195</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.646627069570355</v>
+        <v>1.518846256810264</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.238790101743587</v>
+        <v>1.435470565674495</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.551284186874878</v>
+        <v>1.476914088106217</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.493687006566848</v>
+        <v>1.313504180828878</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.454560186961869</v>
+        <v>1.34650549455808</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.474399603623826</v>
+        <v>1.542533751416366</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.495432497004704</v>
+        <v>1.697465205691956</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.527051042049768</v>
+        <v>1.574572333763866</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.334042777949498</v>
+        <v>1.466998812459942</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.434688948341461</v>
+        <v>1.568090176664469</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.719221396765912</v>
+        <v>1.607958319546723</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.666877507254656</v>
+        <v>1.856803378546106</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.302793710971336</v>
+        <v>1.548232948256915</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.498138895182034</v>
+        <v>1.803373188951137</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.272193368476534</v>
+        <v>1.461597500099317</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.677893627859672</v>
+        <v>1.581971062919365</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.583514503183316</v>
+        <v>1.230267547129585</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.419814982575972</v>
+        <v>1.285494725692596</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.288594930936328</v>
+        <v>1.360170512046312</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.342213935620638</v>
+        <v>1.562419759114794</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1.437569913776225</v>
+        <v>1.639369387188286</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.355221823598582</v>
+        <v>1.529953223389312</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.398350438192186</v>
+        <v>1.509153153781722</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.662007344800337</v>
+        <v>1.461057388515735</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.523749029963414</v>
+        <v>1.428604343224008</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.582423027612289</v>
+        <v>1.549263114203878</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.26184825034231</v>
+        <v>1.724103026731179</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.383927579512579</v>
+        <v>1.608930573963611</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.687941737045447</v>
+        <v>1.610102333508782</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.340545067127596</v>
+        <v>1.301252344439636</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.671542852118172</v>
+        <v>1.454515839222011</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.453965801397803</v>
+        <v>1.384899687171469</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.594336459573477</v>
+        <v>1.472811306922033</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.467745697456729</v>
+        <v>1.436201404891081</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.577587396321565</v>
+        <v>1.526829982584418</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.3408930306866</v>
+        <v>1.591890955624873</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.474040443715789</v>
+        <v>1.579373179113572</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.338034338841452</v>
+        <v>1.497685050408704</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.718738940061195</v>
+        <v>1.579838636367378</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.378555849110306</v>
+        <v>1.474921113847394</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.38850961181218</v>
+        <v>1.620852968805532</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.646909311238471</v>
+        <v>1.60243349442592</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.583433844367169</v>
+        <v>1.757326344197336</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.441981327264894</v>
+        <v>1.50674291526039</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.604077382161328</v>
+        <v>1.489086007579668</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.515711445309762</v>
+        <v>1.451400740947954</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.647663986439853</v>
+        <v>1.525323264428702</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.535167188151547</v>
+        <v>1.259782707903457</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.392674011554087</v>
+        <v>1.671009607116997</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.620690428454194</v>
+        <v>1.72379152009661</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.529464799982826</v>
+        <v>1.344301817052975</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.259406890930756</v>
+        <v>1.710219518207818</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.270043811820624</v>
+        <v>1.7692113453364</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.376050799159631</v>
+        <v>1.458291444663333</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.604458699107524</v>
+        <v>1.696690853912102</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.420078451505731</v>
+        <v>1.501418103153359</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.638522523237605</v>
+        <v>1.407213690064352</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.671143140816152</v>
+        <v>1.473874123382428</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.445188664975923</v>
+        <v>1.554492807906306</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.371260862012163</v>
+        <v>1.571305014391708</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.602860426888613</v>
+        <v>1.295471733844326</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.617178012590198</v>
+        <v>1.467012715078752</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.718441740196839</v>
+        <v>1.561484329411308</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.482017880039079</v>
+        <v>1.945404745947402</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.710023756400069</v>
+        <v>1.513083235650651</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.478400308441346</v>
+        <v>1.601888002055462</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.746356957311375</v>
+        <v>1.712255130150003</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.513655423670672</v>
+        <v>1.427797177891645</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.719460743055286</v>
+        <v>1.575843453152838</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.548520019350065</v>
+        <v>1.142123334945629</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.529947170066237</v>
+        <v>1.207541247341954</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.245342363495426</v>
+        <v>1.428715305493136</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.413006054434365</v>
+        <v>1.747108533615116</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.455177999865685</v>
+        <v>1.339460874596339</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.503382855402343</v>
+        <v>1.523453289876848</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.484103452994133</v>
+        <v>1.577205270888333</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.670143240735865</v>
+        <v>1.469751101383017</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.618965643651306</v>
+        <v>1.353509444806051</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.658583670866035</v>
+        <v>1.634052241839079</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.301293429084322</v>
+        <v>1.554947471992032</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.296151529664733</v>
+        <v>1.485504982644507</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.423100890745544</v>
+        <v>1.616318904781317</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.510937163735083</v>
+        <v>1.715194313414699</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.251330255452408</v>
+        <v>1.403459395024474</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.395143481953554</v>
+        <v>1.551013002239254</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.675031700559303</v>
+        <v>1.425738835177486</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.376806938798852</v>
+        <v>1.340639500009956</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.645802724205859</v>
+        <v>1.517793537758235</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>1.333235669152612</v>
+        <v>1.594142413211225</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.565465117923605</v>
+        <v>1.791797549483603</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.488526641913426</v>
+        <v>1.618376210260813</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.60783601508989</v>
+        <v>1.654513887931633</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.476493741339911</v>
+        <v>1.283125549988844</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.495085150264525</v>
+        <v>1.522257387665401</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.474465654759985</v>
+        <v>1.779445679417776</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.822381485179061</v>
+        <v>1.577301283338962</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.481485586818571</v>
+        <v>1.505752914606512</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.784153599102338</v>
+        <v>1.672496280405719</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.480441404524401</v>
+        <v>1.405320381554489</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.683068934387362</v>
+        <v>1.486150240274916</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.372838655457232</v>
+        <v>1.401883319047196</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.549124727739412</v>
+        <v>1.515772397145427</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.298113046246859</v>
+        <v>1.454173570412437</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.34703963451932</v>
+        <v>1.440695870847749</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.419259507834642</v>
+        <v>1.599301829312389</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.593822659985086</v>
+        <v>1.560324199513516</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.414718329191924</v>
+        <v>1.651287047009643</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.431729113876639</v>
+        <v>1.508922359867837</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.382172025487349</v>
+        <v>1.356168488934103</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.474029399748433</v>
+        <v>1.823138580775586</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.443207623291849</v>
+        <v>1.501014630490073</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.610888975999789</v>
+        <v>1.49304246813932</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.6261837861509</v>
+        <v>1.249270976619407</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.557708765849437</v>
+        <v>1.610515108430028</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.28443615986651</v>
+        <v>1.432333601702509</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.32613817558537</v>
+        <v>1.700173062878778</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.481463689012694</v>
+        <v>1.5492684922401</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.518133461073064</v>
+        <v>1.553909722108981</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.842629752359119</v>
+        <v>1.42061370118419</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.429835538738504</v>
+        <v>1.588810061655471</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.418390015243754</v>
+        <v>1.745715388742004</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.693035407260417</v>
+        <v>1.392003439845011</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.544818501684378</v>
+        <v>1.379745451448372</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.398371126315955</v>
+        <v>1.683271165518476</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.393231478232447</v>
+        <v>1.600732364942085</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.552104664379824</v>
+        <v>1.565719270313996</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.356341642297465</v>
+        <v>1.68795009390321</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.772084155464755</v>
+        <v>1.487822738976174</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.488854300835943</v>
+        <v>1.380464908993213</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.449563194040728</v>
+        <v>1.732616646698897</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.664391158781669</v>
+        <v>1.399691078093128</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.758530423898317</v>
+        <v>1.593856065316196</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.522377959456561</v>
+        <v>1.774591436539988</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/16_localizer.xlsx
+++ b/sequences/16_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>face</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
   </si>
   <si>
     <t>face/face044.jpg</t>
   </si>
   <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
     <t>face/face035.jpg</t>
   </si>
   <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
   </si>
   <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
     <t>flower/flower037.jpg</t>
   </si>
   <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
   </si>
   <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
     <t>face/face061.jpg</t>
   </si>
   <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
   </si>
   <si>
     <t>dog/dog059.jpg</t>
   </si>
   <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>dog/dog057.jpg</t>
   </si>
   <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
   </si>
   <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
     <t>face/face066.jpg</t>
   </si>
   <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
   </si>
   <si>
     <t>dog/dog092.jpg</t>
   </si>
   <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
   </si>
   <si>
     <t>flower/flower095.jpg</t>
   </si>
   <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
     <t>face/face089.jpg</t>
   </si>
   <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
   </si>
   <si>
     <t>house/house094.jpg</t>
   </si>
   <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
   </si>
   <si>
     <t>dog/dog082.jpg</t>
   </si>
   <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
     <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.571295741273105</v>
+        <v>1.753235248757976</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.176196348391896</v>
+        <v>1.398137505566079</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.614535967994022</v>
+        <v>1.474831884658675</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.554122546571185</v>
+        <v>1.55593388488952</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1.444309100374207</v>
+        <v>1.3341553881924</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.400739739363323</v>
+        <v>1.468668059805965</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.638304905738302</v>
+        <v>1.48126564944852</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.449469195259759</v>
+        <v>1.46848599281773</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.424415596683288</v>
+        <v>1.715144444915871</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.665809801768146</v>
+        <v>1.577220671957328</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.751662759032523</v>
+        <v>1.613303214282442</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.34968813228828</v>
+        <v>1.288743445767273</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.761102387843417</v>
+        <v>1.311423492931386</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.640344531102334</v>
+        <v>1.585840042107038</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.245429094485594</v>
+        <v>1.534858688770808</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.439815562908124</v>
+        <v>1.657756025222419</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.436612961464814</v>
+        <v>1.338815015329238</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.499289170974936</v>
+        <v>1.239186498665482</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1.507369085604522</v>
+        <v>1.530384985916201</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.316123196253223</v>
+        <v>1.261192239760045</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.580437470984558</v>
+        <v>1.852560823002354</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.564262558631881</v>
+        <v>1.521428525778658</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.573681789002823</v>
+        <v>1.601124895477134</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.576865168295094</v>
+        <v>1.685673448281289</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.306626410366367</v>
+        <v>1.653391202224969</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.550001297224429</v>
+        <v>1.666193539761439</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.64900032108545</v>
+        <v>1.534063181488582</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.450365336369267</v>
+        <v>1.394885720437816</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.51131668260594</v>
+        <v>1.734555853192989</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.830184315430991</v>
+        <v>1.731985498953035</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.372817786719849</v>
+        <v>1.616477755985797</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.35935651947739</v>
+        <v>1.723202026163233</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.537274851921471</v>
+        <v>1.455199563178444</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.401745996029018</v>
+        <v>1.795000016567334</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.348942741559245</v>
+        <v>1.575400034523277</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.50231025531276</v>
+        <v>1.648423510500536</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.578810247024888</v>
+        <v>1.518905958536089</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.602127345472059</v>
+        <v>1.566065373565493</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.485398239091837</v>
+        <v>1.494650879070302</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.217364034570865</v>
+        <v>1.535916195079565</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.402113471393427</v>
+        <v>1.245026252275108</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.347594775290259</v>
+        <v>1.344793270063115</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.612376920465171</v>
+        <v>1.577985829475158</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.419223782442518</v>
+        <v>1.571673007703322</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.322825579077802</v>
+        <v>1.465270093259376</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.477103056578315</v>
+        <v>1.741145714800355</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.553309676055308</v>
+        <v>1.621250066783176</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.847441404177445</v>
+        <v>1.514115627082471</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.379827455359135</v>
+        <v>1.269334758470176</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.464193481676011</v>
+        <v>1.531476813076064</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.430032253977228</v>
+        <v>1.788270836457217</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1.453192073378835</v>
+        <v>1.814517218497768</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.629121219375789</v>
+        <v>1.506041125079536</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.688971815739082</v>
+        <v>1.256089607919923</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.276703635754676</v>
+        <v>1.653988412627017</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.402778335119511</v>
+        <v>1.531215732833333</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.490843199898723</v>
+        <v>1.844521875209846</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.526260337305332</v>
+        <v>1.567175641851389</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.567365305425144</v>
+        <v>1.562000985165905</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.458324327360015</v>
+        <v>1.799815769149262</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.649635263283514</v>
+        <v>1.402035974179072</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.380711969338546</v>
+        <v>1.388452166469465</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.62392212868505</v>
+        <v>1.398464079197294</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.52926193158329</v>
+        <v>1.723710244321776</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.840264188583909</v>
+        <v>1.703593552886013</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.519106404420753</v>
+        <v>1.356985166080544</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.240705984147292</v>
+        <v>1.57066122481169</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.600960455341862</v>
+        <v>1.536616835972281</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.194828319745745</v>
+        <v>1.695134596046903</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.398705827911699</v>
+        <v>1.590823075994275</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.632136805383614</v>
+        <v>1.391973952574522</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.712214562565598</v>
+        <v>1.452672205972389</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.459838817241282</v>
+        <v>1.681771075395945</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.402912419574078</v>
+        <v>1.527077729792162</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.65087571824588</v>
+        <v>1.514469110790431</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.551242478233384</v>
+        <v>1.66628105425331</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.534202887047102</v>
+        <v>1.583197466278431</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.547748859767588</v>
+        <v>1.552818216768088</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.29030937493905</v>
+        <v>1.395328409756599</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.187431224732937</v>
+        <v>1.379946316530826</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.661842652500043</v>
+        <v>1.415987223761662</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.497332586520325</v>
+        <v>1.631465255505644</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.537575653245721</v>
+        <v>1.742564783545693</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.507197525054225</v>
+        <v>1.634053481684921</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.369871151347281</v>
+        <v>1.696602645582571</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.412197672818897</v>
+        <v>1.48308611550861</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.280513307527588</v>
+        <v>1.380930892477576</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.55667188053173</v>
+        <v>1.522947490078672</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.455919517900188</v>
+        <v>1.457543411050228</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.567547096947299</v>
+        <v>1.239999167603272</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.722578247792145</v>
+        <v>1.584994926098554</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.667180340300386</v>
+        <v>1.556266152250378</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.55953686852151</v>
+        <v>1.410740466947182</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.645313475396914</v>
+        <v>1.609126099006443</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.592967918469464</v>
+        <v>1.463839720525248</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.322445051553172</v>
+        <v>1.468779008212456</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.585136216434634</v>
+        <v>1.808015698470045</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.1783587885295</v>
+        <v>1.54142531181835</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.578061222117331</v>
+        <v>1.47130093522802</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.574676546273673</v>
+        <v>1.300634403676348</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.40855901142621</v>
+        <v>1.406705445073532</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.36551298778956</v>
+        <v>1.515036901789485</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.691377547479696</v>
+        <v>1.556184590383376</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.629362910085754</v>
+        <v>1.182492952123282</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.28094213426256</v>
+        <v>1.297293872494577</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.494380709483545</v>
+        <v>1.427281550910199</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.511492217622914</v>
+        <v>1.498787416681259</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.587359370365769</v>
+        <v>1.564999199828081</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.512410472925044</v>
+        <v>1.27598746460307</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.461755763561712</v>
+        <v>1.468638201543531</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.326967786416696</v>
+        <v>1.36513748116088</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.787925977122375</v>
+        <v>1.474478202559412</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.504994953355563</v>
+        <v>1.233378471064638</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.689344079673469</v>
+        <v>1.733230421661166</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.625663978065496</v>
+        <v>1.74132687134143</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.577363563489971</v>
+        <v>1.39250655878946</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.429123211915581</v>
+        <v>1.556908481690602</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.750643503626534</v>
+        <v>1.5269527739948</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.497264934106955</v>
+        <v>1.438451016873419</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.53520788889261</v>
+        <v>1.378770387693673</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.567084099081359</v>
+        <v>1.4700796908718</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.643947627774675</v>
+        <v>1.529354622025082</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>1.573340945053195</v>
+        <v>1.678312214873344</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.518846256810264</v>
+        <v>1.437838469066703</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.435470565674495</v>
+        <v>1.564075874488895</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.476914088106217</v>
+        <v>1.620702449238265</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.313504180828878</v>
+        <v>1.74841406327004</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.34650549455808</v>
+        <v>1.433562685827296</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.542533751416366</v>
+        <v>1.592484437786353</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.697465205691956</v>
+        <v>1.264959869439504</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.574572333763866</v>
+        <v>1.465270091589691</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.466998812459942</v>
+        <v>1.556304321886583</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.568090176664469</v>
+        <v>1.62850412864878</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.607958319546723</v>
+        <v>1.453309132306965</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.856803378546106</v>
+        <v>1.62684335085264</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.548232948256915</v>
+        <v>1.361872121168414</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.803373188951137</v>
+        <v>1.494294777390788</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.461597500099317</v>
+        <v>1.453044475578439</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.581971062919365</v>
+        <v>1.63810917465422</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.230267547129585</v>
+        <v>1.538553393313613</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.285494725692596</v>
+        <v>1.382892851030763</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.360170512046312</v>
+        <v>1.339080239376041</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.562419759114794</v>
+        <v>1.598421977652884</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1.639369387188286</v>
+        <v>1.473160198772851</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.529953223389312</v>
+        <v>1.332060316820133</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.509153153781722</v>
+        <v>1.94476259542973</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.461057388515735</v>
+        <v>1.63033137098627</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.428604343224008</v>
+        <v>1.413199281438512</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.549263114203878</v>
+        <v>1.525970229116935</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.724103026731179</v>
+        <v>1.517851382239978</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.608930573963611</v>
+        <v>1.404962720150646</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.610102333508782</v>
+        <v>1.457645558597016</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.301252344439636</v>
+        <v>1.544866001483529</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.454515839222011</v>
+        <v>1.591706017231076</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.384899687171469</v>
+        <v>1.485162867143669</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.472811306922033</v>
+        <v>1.543944337298429</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.436201404891081</v>
+        <v>1.555698616467849</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.526829982584418</v>
+        <v>1.352788842332854</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.591890955624873</v>
+        <v>1.343404989019273</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.579373179113572</v>
+        <v>1.454743388011253</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.497685050408704</v>
+        <v>1.698910848219289</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.579838636367378</v>
+        <v>1.659829046635924</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.474921113847394</v>
+        <v>1.615173042358423</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.620852968805532</v>
+        <v>1.650599625021507</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.60243349442592</v>
+        <v>1.521769446778285</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.757326344197336</v>
+        <v>1.734071982575041</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.50674291526039</v>
+        <v>1.626421160305785</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.489086007579668</v>
+        <v>1.560110124786103</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>1.451400740947954</v>
+        <v>1.456939188261956</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.525323264428702</v>
+        <v>1.478392415469268</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.259782707903457</v>
+        <v>1.626725388419704</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.671009607116997</v>
+        <v>1.515016997561488</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.72379152009661</v>
+        <v>1.391245288886865</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.344301817052975</v>
+        <v>1.62971434689177</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.710219518207818</v>
+        <v>1.346766217284644</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.7692113453364</v>
+        <v>1.646526869173531</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.458291444663333</v>
+        <v>1.327352194021311</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.696690853912102</v>
+        <v>1.447150769964315</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.501418103153359</v>
+        <v>1.482111508186975</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.407213690064352</v>
+        <v>1.61841254006687</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.473874123382428</v>
+        <v>1.456786046989829</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.554492807906306</v>
+        <v>1.461314259784008</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.571305014391708</v>
+        <v>1.505019241027351</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.295471733844326</v>
+        <v>1.413545042201678</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.467012715078752</v>
+        <v>1.427057340057992</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.561484329411308</v>
+        <v>1.5168739462843</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.945404745947402</v>
+        <v>1.376165938318514</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="F189">
-        <v>1.513083235650651</v>
+        <v>1.358228729021535</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.601888002055462</v>
+        <v>1.592741491702814</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.712255130150003</v>
+        <v>1.693238413262888</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.427797177891645</v>
+        <v>1.624788228898096</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.575843453152838</v>
+        <v>1.557195049460251</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.142123334945629</v>
+        <v>1.378024906843098</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.207541247341954</v>
+        <v>1.398798397989785</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.428715305493136</v>
+        <v>1.274344990095464</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.747108533615116</v>
+        <v>1.28300094197703</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.339460874596339</v>
+        <v>1.923183336365352</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.523453289876848</v>
+        <v>1.605766256228676</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.577205270888333</v>
+        <v>1.517268475856196</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.469751101383017</v>
+        <v>1.375211635169153</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.353509444806051</v>
+        <v>1.469974551611915</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.634052241839079</v>
+        <v>1.371070861887584</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.554947471992032</v>
+        <v>1.641445908131829</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.485504982644507</v>
+        <v>1.472842131809015</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.616318904781317</v>
+        <v>1.661352505727415</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.715194313414699</v>
+        <v>1.489923788714244</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.403459395024474</v>
+        <v>1.469865389849734</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.551013002239254</v>
+        <v>1.554783678478428</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.425738835177486</v>
+        <v>1.582887206401383</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.340639500009956</v>
+        <v>1.401431823506949</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.517793537758235</v>
+        <v>1.478785788603362</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>1.594142413211225</v>
+        <v>1.389203508539828</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.791797549483603</v>
+        <v>1.617276241191762</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.618376210260813</v>
+        <v>1.735256650962811</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.654513887931633</v>
+        <v>1.468779640293786</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.283125549988844</v>
+        <v>1.485212206033356</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.522257387665401</v>
+        <v>1.453419645791013</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.779445679417776</v>
+        <v>1.620916403678762</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.577301283338962</v>
+        <v>1.419047453762911</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.505752914606512</v>
+        <v>1.469388144309127</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.672496280405719</v>
+        <v>1.663402082562023</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.405320381554489</v>
+        <v>1.545278698600141</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.486150240274916</v>
+        <v>1.223756656660582</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.401883319047196</v>
+        <v>1.478039690689758</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.515772397145427</v>
+        <v>1.76128573159178</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.454173570412437</v>
+        <v>1.71003562262482</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.440695870847749</v>
+        <v>1.649707631829705</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.599301829312389</v>
+        <v>1.331950256013598</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.560324199513516</v>
+        <v>1.299919830805573</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.651287047009643</v>
+        <v>1.647326501687549</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.508922359867837</v>
+        <v>1.271105658456651</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.356168488934103</v>
+        <v>1.200205151798277</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.823138580775586</v>
+        <v>1.175340369948318</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.501014630490073</v>
+        <v>1.35136952864024</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.49304246813932</v>
+        <v>1.464274623875195</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.249270976619407</v>
+        <v>1.290798537810944</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.610515108430028</v>
+        <v>1.49274957175352</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.432333601702509</v>
+        <v>1.923161499103793</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.700173062878778</v>
+        <v>1.450422758767835</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.5492684922401</v>
+        <v>1.422834117858138</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.553909722108981</v>
+        <v>1.562715753777861</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.42061370118419</v>
+        <v>1.611540687557044</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.588810061655471</v>
+        <v>1.725199460766176</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.745715388742004</v>
+        <v>1.351302370440143</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.392003439845011</v>
+        <v>1.261052376135793</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.379745451448372</v>
+        <v>1.670315597266746</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.683271165518476</v>
+        <v>1.480296307416857</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.600732364942085</v>
+        <v>1.443921372855151</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.565719270313996</v>
+        <v>1.508699378606644</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.68795009390321</v>
+        <v>1.375580400057838</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.487822738976174</v>
+        <v>1.617777942322872</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.380464908993213</v>
+        <v>1.643556616596889</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.732616646698897</v>
+        <v>1.655877255656188</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.399691078093128</v>
+        <v>1.464855379159705</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.593856065316196</v>
+        <v>1.474469459415739</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.774591436539988</v>
+        <v>1.467113304948659</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/16_localizer.xlsx
+++ b/sequences/16_localizer.xlsx
@@ -43,772 +43,772 @@
     <t>house</t>
   </si>
   <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
     <t>face/face034.jpg</t>
   </si>
   <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
   </si>
   <si>
     <t>flower/flower039.jpg</t>
   </si>
   <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
     <t>face/face035.jpg</t>
   </si>
   <si>
     <t>house/house032.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
   </si>
   <si>
     <t>house/house059.jpg</t>
   </si>
   <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
     <t>face/face054.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
   </si>
   <si>
     <t>house/house058.jpg</t>
   </si>
   <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
   </si>
   <si>
     <t>dog/dog054.jpg</t>
   </si>
   <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
     <t>dog/dog059.jpg</t>
   </si>
   <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
   </si>
   <si>
     <t>dog/dog065.jpg</t>
   </si>
   <si>
-    <t>dog/dog067.jpg</t>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
   </si>
   <si>
     <t>house/house066.jpg</t>
   </si>
   <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
+    <t>flower/flower080.jpg</t>
   </si>
   <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
+    <t>flower/flower079.jpg</t>
   </si>
   <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
+    <t>house/house072.jpg</t>
   </si>
   <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>dog/dog091.jpg</t>
   </si>
   <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
   </si>
   <si>
     <t>dog/dog089.jpg</t>
   </si>
   <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
   </si>
   <si>
     <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.753235248757976</v>
+        <v>1.690943018680375</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.398137505566079</v>
+        <v>1.590665056029077</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.474831884658675</v>
+        <v>1.636267142585573</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.55593388488952</v>
+        <v>1.391290869861787</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.3341553881924</v>
+        <v>1.423944814395154</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.468668059805965</v>
+        <v>1.560623297391905</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.48126564944852</v>
+        <v>1.457719276609885</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.46848599281773</v>
+        <v>1.577642653149983</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.715144444915871</v>
+        <v>1.281296663230354</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.577220671957328</v>
+        <v>1.439928612576004</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.613303214282442</v>
+        <v>1.668625939791841</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.288743445767273</v>
+        <v>1.756219163541142</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.311423492931386</v>
+        <v>1.52269473459844</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.585840042107038</v>
+        <v>1.486364048674564</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.534858688770808</v>
+        <v>1.343698727155808</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.657756025222419</v>
+        <v>1.240533822833954</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.338815015329238</v>
+        <v>1.514938301976349</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.239186498665482</v>
+        <v>1.436999134125795</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.530384985916201</v>
+        <v>1.560233505630396</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.261192239760045</v>
+        <v>1.817267805834338</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.852560823002354</v>
+        <v>1.626828702743973</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.521428525778658</v>
+        <v>1.407842523104905</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.601124895477134</v>
+        <v>1.416917244873018</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.685673448281289</v>
+        <v>1.512395526908038</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.653391202224969</v>
+        <v>1.612094988944506</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.666193539761439</v>
+        <v>1.241375016867004</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.534063181488582</v>
+        <v>1.655745031888522</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.394885720437816</v>
+        <v>1.603525392134042</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.734555853192989</v>
+        <v>1.342013418904205</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.731985498953035</v>
+        <v>1.385029255260323</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.616477755985797</v>
+        <v>1.983451175765491</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.723202026163233</v>
+        <v>1.019938241333987</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.455199563178444</v>
+        <v>1.288027042352206</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.795000016567334</v>
+        <v>1.543355332077058</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.575400034523277</v>
+        <v>1.215027356303167</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.648423510500536</v>
+        <v>1.558568481351285</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.518905958536089</v>
+        <v>1.515522671587017</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.566065373565493</v>
+        <v>1.656292006009144</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.494650879070302</v>
+        <v>1.732421992302092</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.535916195079565</v>
+        <v>1.459105166427594</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.245026252275108</v>
+        <v>1.500377488621291</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.344793270063115</v>
+        <v>1.528205777473593</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.577985829475158</v>
+        <v>1.415247869497027</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.571673007703322</v>
+        <v>1.657398331398725</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.465270093259376</v>
+        <v>1.71450229067944</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.741145714800355</v>
+        <v>1.201816027311277</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.621250066783176</v>
+        <v>1.289071579661236</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.514115627082471</v>
+        <v>1.734753153510996</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.269334758470176</v>
+        <v>1.284915443604501</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.531476813076064</v>
+        <v>1.355617291872669</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.788270836457217</v>
+        <v>1.200580746801902</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.814517218497768</v>
+        <v>1.486387660304137</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.506041125079536</v>
+        <v>1.713515632105321</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.256089607919923</v>
+        <v>1.403154482435726</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.653988412627017</v>
+        <v>1.62180716936352</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.531215732833333</v>
+        <v>1.536094305088139</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.844521875209846</v>
+        <v>1.554730281155712</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.567175641851389</v>
+        <v>1.479251514402643</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.562000985165905</v>
+        <v>1.593413619562259</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.799815769149262</v>
+        <v>1.549384644902215</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.402035974179072</v>
+        <v>1.32524164143004</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.388452166469465</v>
+        <v>1.441697182235373</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.398464079197294</v>
+        <v>1.650551321158303</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.723710244321776</v>
+        <v>1.309099398919456</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.703593552886013</v>
+        <v>1.42091072393866</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.356985166080544</v>
+        <v>1.634051838377645</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.57066122481169</v>
+        <v>1.652759326872112</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.536616835972281</v>
+        <v>1.53915217994977</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.695134596046903</v>
+        <v>1.451873363945936</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.590823075994275</v>
+        <v>1.499278929155755</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.391973952574522</v>
+        <v>1.481437004723505</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.452672205972389</v>
+        <v>1.610267621927941</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.681771075395945</v>
+        <v>1.703964704880217</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.527077729792162</v>
+        <v>1.264791619372277</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.514469110790431</v>
+        <v>1.605996227878001</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.66628105425331</v>
+        <v>1.556666696416346</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.583197466278431</v>
+        <v>1.544770948408605</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.552818216768088</v>
+        <v>1.923637660622527</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.395328409756599</v>
+        <v>1.752002691081721</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.379946316530826</v>
+        <v>1.486337930421398</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.415987223761662</v>
+        <v>1.45512493513026</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.631465255505644</v>
+        <v>1.705770512765032</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.742564783545693</v>
+        <v>1.562890539915274</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.634053481684921</v>
+        <v>1.467249299828882</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1.696602645582571</v>
+        <v>1.373691485459568</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.48308611550861</v>
+        <v>1.54302737878462</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.380930892477576</v>
+        <v>1.60756874828278</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.522947490078672</v>
+        <v>1.663188505229068</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.457543411050228</v>
+        <v>1.756276451792677</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.239999167603272</v>
+        <v>1.388350843080083</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.584994926098554</v>
+        <v>1.688725569206747</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.556266152250378</v>
+        <v>1.595533157018425</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.410740466947182</v>
+        <v>1.547485277994397</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.609126099006443</v>
+        <v>1.661150240710783</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.463839720525248</v>
+        <v>1.241808192474451</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.468779008212456</v>
+        <v>1.581325920197309</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.808015698470045</v>
+        <v>1.309690498905791</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.54142531181835</v>
+        <v>1.575643898302744</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.47130093522802</v>
+        <v>1.467962423442265</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.300634403676348</v>
+        <v>1.641820932002979</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.406705445073532</v>
+        <v>1.547011561518794</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.515036901789485</v>
+        <v>1.489448056150583</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.556184590383376</v>
+        <v>1.481668232296886</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.182492952123282</v>
+        <v>1.506784546696482</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.297293872494577</v>
+        <v>1.578792328740152</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.427281550910199</v>
+        <v>1.254214178018954</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.498787416681259</v>
+        <v>1.442630064747686</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.564999199828081</v>
+        <v>1.663499234815061</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.27598746460307</v>
+        <v>1.627541943610541</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.468638201543531</v>
+        <v>1.442777824941697</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.36513748116088</v>
+        <v>1.674843121549367</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.474478202559412</v>
+        <v>1.692755719036566</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.233378471064638</v>
+        <v>1.349131560818165</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.733230421661166</v>
+        <v>1.463486853947141</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.74132687134143</v>
+        <v>1.376245191337428</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.39250655878946</v>
+        <v>1.406636506510829</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.556908481690602</v>
+        <v>1.519928218106847</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.5269527739948</v>
+        <v>1.449781129864456</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.438451016873419</v>
+        <v>1.607158885393559</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.378770387693673</v>
+        <v>1.62169577966108</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.4700796908718</v>
+        <v>1.391522689562657</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.529354622025082</v>
+        <v>1.451321349789865</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.678312214873344</v>
+        <v>1.563295747295548</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.437838469066703</v>
+        <v>1.564431677890406</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.564075874488895</v>
+        <v>1.621714625608182</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.620702449238265</v>
+        <v>1.605843449562168</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.74841406327004</v>
+        <v>1.392119845856782</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.433562685827296</v>
+        <v>1.288783335925754</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.592484437786353</v>
+        <v>1.734731946921518</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.264959869439504</v>
+        <v>1.45818146754106</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.465270091589691</v>
+        <v>1.435551360624251</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.556304321886583</v>
+        <v>1.68368259349818</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.62850412864878</v>
+        <v>1.426125278330986</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.453309132306965</v>
+        <v>1.630269090253201</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.62684335085264</v>
+        <v>1.587728420431249</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.361872121168414</v>
+        <v>1.476743814871045</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.494294777390788</v>
+        <v>1.397150427555288</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.453044475578439</v>
+        <v>1.398774534372307</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.63810917465422</v>
+        <v>1.236906935037443</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.538553393313613</v>
+        <v>1.711364557843188</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.382892851030763</v>
+        <v>1.537203142412793</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.339080239376041</v>
+        <v>1.661869118835987</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.598421977652884</v>
+        <v>1.621824702887128</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.473160198772851</v>
+        <v>1.551238627456992</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.332060316820133</v>
+        <v>1.836759587825048</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.94476259542973</v>
+        <v>1.474385020465346</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.63033137098627</v>
+        <v>1.649824133327026</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.413199281438512</v>
+        <v>1.348762481198233</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.525970229116935</v>
+        <v>1.446959817720707</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.517851382239978</v>
+        <v>1.417338123713352</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.404962720150646</v>
+        <v>1.45925411807181</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.457645558597016</v>
+        <v>1.745537568887589</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.544866001483529</v>
+        <v>1.364473477017829</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.591706017231076</v>
+        <v>1.591354173861472</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.485162867143669</v>
+        <v>1.62687045624138</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.543944337298429</v>
+        <v>1.629565658734689</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.555698616467849</v>
+        <v>1.574196927625262</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.352788842332854</v>
+        <v>1.232426647789857</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.343404989019273</v>
+        <v>1.349831049422456</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.454743388011253</v>
+        <v>1.390930765892813</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.698910848219289</v>
+        <v>1.364199493781877</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.659829046635924</v>
+        <v>1.450109381220293</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.615173042358423</v>
+        <v>1.698306673012017</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.650599625021507</v>
+        <v>1.318321362533612</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.521769446778285</v>
+        <v>1.318740920122299</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.734071982575041</v>
+        <v>1.456900787158571</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <v>1.626421160305785</v>
+        <v>1.324449625256784</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.560110124786103</v>
+        <v>1.297475165380017</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>1.456939188261956</v>
+        <v>1.320383217075605</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.478392415469268</v>
+        <v>1.47660830269593</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.626725388419704</v>
+        <v>1.641037425683102</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.515016997561488</v>
+        <v>1.617652786673137</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.391245288886865</v>
+        <v>1.812541646958599</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.62971434689177</v>
+        <v>1.527340016100092</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.346766217284644</v>
+        <v>1.84430316848721</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.646526869173531</v>
+        <v>1.389291336051706</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.327352194021311</v>
+        <v>1.386285765829679</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.447150769964315</v>
+        <v>1.467540259982481</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.482111508186975</v>
+        <v>1.556129659678198</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.61841254006687</v>
+        <v>1.784804477889023</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.456786046989829</v>
+        <v>1.501453534688777</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.461314259784008</v>
+        <v>1.66857243938366</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.505019241027351</v>
+        <v>1.559678155543907</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.413545042201678</v>
+        <v>1.397971215712379</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.427057340057992</v>
+        <v>1.5152096103995</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.5168739462843</v>
+        <v>1.418252614278449</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.376165938318514</v>
+        <v>1.227125385272084</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.358228729021535</v>
+        <v>1.288831163277668</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.592741491702814</v>
+        <v>1.54481566668767</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.693238413262888</v>
+        <v>1.329953298461569</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.624788228898096</v>
+        <v>1.466716132130736</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.557195049460251</v>
+        <v>1.415946684192842</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.378024906843098</v>
+        <v>1.41234222325141</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.398798397989785</v>
+        <v>1.773376139914756</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.274344990095464</v>
+        <v>1.306095105523096</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.28300094197703</v>
+        <v>1.317404996012905</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.923183336365352</v>
+        <v>1.576360859820638</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.605766256228676</v>
+        <v>1.427131252067545</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.517268475856196</v>
+        <v>1.693660334959493</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.375211635169153</v>
+        <v>1.417085873420548</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.469974551611915</v>
+        <v>1.722630765158074</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.371070861887584</v>
+        <v>1.55731596000138</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.641445908131829</v>
+        <v>1.719555683270716</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.472842131809015</v>
+        <v>1.580074036979373</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.661352505727415</v>
+        <v>1.674327068199488</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.489923788714244</v>
+        <v>1.395457180563843</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.469865389849734</v>
+        <v>1.268272102799033</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.554783678478428</v>
+        <v>1.30423789503625</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.582887206401383</v>
+        <v>1.484585295905757</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.401431823506949</v>
+        <v>1.625383337276364</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.478785788603362</v>
+        <v>1.381063232111605</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.389203508539828</v>
+        <v>1.228992720967609</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.617276241191762</v>
+        <v>1.336037526355854</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.735256650962811</v>
+        <v>1.25018993612998</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.468779640293786</v>
+        <v>1.751932772526875</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.485212206033356</v>
+        <v>1.610009743820784</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.453419645791013</v>
+        <v>1.296345559058857</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.620916403678762</v>
+        <v>1.654388179594583</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.419047453762911</v>
+        <v>1.361123624909899</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.469388144309127</v>
+        <v>1.677420005228436</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.663402082562023</v>
+        <v>1.282533057911948</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.545278698600141</v>
+        <v>1.702583635187313</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.223756656660582</v>
+        <v>1.296876933539439</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.478039690689758</v>
+        <v>1.401952970376262</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.76128573159178</v>
+        <v>1.554747820778233</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.71003562262482</v>
+        <v>1.354106644179658</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.649707631829705</v>
+        <v>1.733140414421477</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.331950256013598</v>
+        <v>1.311425215406114</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.299919830805573</v>
+        <v>1.511024200308147</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.647326501687549</v>
+        <v>1.341369896000893</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.271105658456651</v>
+        <v>1.558963148764452</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.200205151798277</v>
+        <v>1.315898935073238</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.175340369948318</v>
+        <v>1.403659067737124</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.35136952864024</v>
+        <v>1.418895736489742</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.464274623875195</v>
+        <v>1.445689164123202</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.290798537810944</v>
+        <v>1.421343153329308</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.49274957175352</v>
+        <v>1.363495458757511</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.923161499103793</v>
+        <v>1.716420825302482</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.450422758767835</v>
+        <v>1.622660568431959</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.422834117858138</v>
+        <v>1.366203137671589</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.562715753777861</v>
+        <v>1.323822124038626</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.611540687557044</v>
+        <v>1.69201778979282</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.725199460766176</v>
+        <v>1.153408862648279</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.351302370440143</v>
+        <v>1.604252307477133</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.261052376135793</v>
+        <v>1.217028035443418</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.670315597266746</v>
+        <v>1.424893303596222</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.480296307416857</v>
+        <v>1.442633062418836</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.443921372855151</v>
+        <v>1.644711458819743</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.508699378606644</v>
+        <v>1.463429541150899</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.375580400057838</v>
+        <v>1.657623931723219</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.617777942322872</v>
+        <v>1.471548742422841</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.643556616596889</v>
+        <v>1.466014544900395</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.655877255656188</v>
+        <v>1.348256805358739</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="F255">
-        <v>1.464855379159705</v>
+        <v>1.428453487548456</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.474469459415739</v>
+        <v>1.437909397696148</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.467113304948659</v>
+        <v>1.33972441182453</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/16_localizer.xlsx
+++ b/sequences/16_localizer.xlsx
@@ -31,781 +31,781 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>house</t>
   </si>
   <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
     <t>flower/flower037.jpg</t>
   </si>
   <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
   </si>
   <si>
     <t>dog/dog040.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
     <t>dog/dog047.jpg</t>
   </si>
   <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
   </si>
   <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
-    <t>face/face060.jpg</t>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
   </si>
   <si>
     <t>flower/flower057.jpg</t>
   </si>
   <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
   </si>
   <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
     <t>face/face073.jpg</t>
   </si>
   <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
   </si>
   <si>
     <t>face/face065.jpg</t>
   </si>
   <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
   </si>
   <si>
     <t>dog/dog078.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
   </si>
   <si>
     <t>dog/dog087.jpg</t>
   </si>
   <si>
-    <t>dog/dog082.jpg</t>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
   </si>
   <si>
     <t>house/house090.jpg</t>
   </si>
   <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
     <t>dog/dog085.jpg</t>
   </si>
   <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
   </si>
   <si>
     <t>flower/flower092.jpg</t>
   </si>
   <si>
-    <t>face/face090.jpg</t>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
   </si>
   <si>
     <t>flower/flower082.jpg</t>
   </si>
   <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
+    <t>flower/flower083.jpg</t>
   </si>
   <si>
     <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
   </si>
   <si>
     <t>flower/flower089.jpg</t>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.690943018680375</v>
+        <v>1.474982217929535</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.590665056029077</v>
+        <v>1.233116827250408</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.636267142585573</v>
+        <v>1.522039916982111</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.391290869861787</v>
+        <v>1.659937758828209</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.423944814395154</v>
+        <v>1.592959148349812</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.560623297391905</v>
+        <v>1.528416796793483</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.457719276609885</v>
+        <v>1.465040865032581</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.577642653149983</v>
+        <v>1.770147100839083</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.281296663230354</v>
+        <v>1.531206897828999</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.439928612576004</v>
+        <v>1.710609118164166</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.668625939791841</v>
+        <v>1.446853350925206</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.756219163541142</v>
+        <v>1.353941294767235</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.52269473459844</v>
+        <v>1.678253596521645</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.486364048674564</v>
+        <v>1.311778237313373</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.343698727155808</v>
+        <v>1.369075031141152</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.240533822833954</v>
+        <v>1.407309681896195</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1.514938301976349</v>
+        <v>1.515352688396134</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.436999134125795</v>
+        <v>1.730310383151312</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.560233505630396</v>
+        <v>1.490361606615234</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.817267805834338</v>
+        <v>1.756540428245292</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.626828702743973</v>
+        <v>1.543245444689725</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.407842523104905</v>
+        <v>1.328871830271161</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.416917244873018</v>
+        <v>1.557129000920193</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.512395526908038</v>
+        <v>1.820191117182001</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.612094988944506</v>
+        <v>1.726257252901138</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.241375016867004</v>
+        <v>1.229958940702156</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.655745031888522</v>
+        <v>1.613920642082086</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.603525392134042</v>
+        <v>1.519660645646807</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.342013418904205</v>
+        <v>1.406586338169839</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.385029255260323</v>
+        <v>1.435596694721417</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.983451175765491</v>
+        <v>1.547447617632325</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.019938241333987</v>
+        <v>1.709719301849187</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.288027042352206</v>
+        <v>1.77061895307645</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1.543355332077058</v>
+        <v>1.326285308063302</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.215027356303167</v>
+        <v>1.392084042017161</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.558568481351285</v>
+        <v>1.580432985897664</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.515522671587017</v>
+        <v>1.338252887481535</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.656292006009144</v>
+        <v>1.466385548566411</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.732421992302092</v>
+        <v>1.51563587765455</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.459105166427594</v>
+        <v>1.417799549059674</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.500377488621291</v>
+        <v>1.393390025139692</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.528205777473593</v>
+        <v>1.513429818778447</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.415247869497027</v>
+        <v>1.534665622482831</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.657398331398725</v>
+        <v>1.638576758064196</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.71450229067944</v>
+        <v>1.419971064565293</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.201816027311277</v>
+        <v>1.731389763234161</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.289071579661236</v>
+        <v>1.578261495789889</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.734753153510996</v>
+        <v>1.772875225038815</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.284915443604501</v>
+        <v>1.513789254718478</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.355617291872669</v>
+        <v>1.292986147220932</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.200580746801902</v>
+        <v>1.261275040034599</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.486387660304137</v>
+        <v>1.282237330050807</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.713515632105321</v>
+        <v>1.501943596274222</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.403154482435726</v>
+        <v>1.348306781848489</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.62180716936352</v>
+        <v>1.539975186869804</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.536094305088139</v>
+        <v>1.331538063620592</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.554730281155712</v>
+        <v>1.719683808653175</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.479251514402643</v>
+        <v>1.357160821471517</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.593413619562259</v>
+        <v>1.732689670819944</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.549384644902215</v>
+        <v>1.482860813754171</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.32524164143004</v>
+        <v>1.614373596293417</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.441697182235373</v>
+        <v>1.239017907779586</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.650551321158303</v>
+        <v>1.424250733557483</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.309099398919456</v>
+        <v>1.206272982767417</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.42091072393866</v>
+        <v>1.631129394155884</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.634051838377645</v>
+        <v>1.389867080711042</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.652759326872112</v>
+        <v>1.682369927183141</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.53915217994977</v>
+        <v>1.402574958941457</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.451873363945936</v>
+        <v>1.767173834057362</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.499278929155755</v>
+        <v>1.655456548344671</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.481437004723505</v>
+        <v>1.556191984894733</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.610267621927941</v>
+        <v>1.504956982421125</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.703964704880217</v>
+        <v>1.497459442896405</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.264791619372277</v>
+        <v>1.491286271487583</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.605996227878001</v>
+        <v>1.050657823455627</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.556666696416346</v>
+        <v>1.339251151383428</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1.544770948408605</v>
+        <v>1.518886612116073</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.923637660622527</v>
+        <v>1.59600474186782</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.752002691081721</v>
+        <v>1.534237971464153</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.486337930421398</v>
+        <v>1.639290233214744</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.45512493513026</v>
+        <v>1.586873226080002</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.705770512765032</v>
+        <v>1.537654539539283</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.562890539915274</v>
+        <v>1.51060867962973</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.467249299828882</v>
+        <v>1.318376080556231</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.373691485459568</v>
+        <v>1.26428177913515</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.54302737878462</v>
+        <v>1.463384348781648</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.60756874828278</v>
+        <v>1.592102897114798</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.663188505229068</v>
+        <v>1.772329811089174</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.756276451792677</v>
+        <v>1.22735448199003</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.388350843080083</v>
+        <v>1.539258416284027</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.688725569206747</v>
+        <v>1.399074931196938</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>1.595533157018425</v>
+        <v>1.383894819149324</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.547485277994397</v>
+        <v>1.460550712219913</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.661150240710783</v>
+        <v>1.86683085198761</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.241808192474451</v>
+        <v>1.536172268636442</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.581325920197309</v>
+        <v>1.30131315278156</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.309690498905791</v>
+        <v>1.451702080412859</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.575643898302744</v>
+        <v>1.485836187557945</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.467962423442265</v>
+        <v>1.644263100017804</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.641820932002979</v>
+        <v>1.192802696080354</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.547011561518794</v>
+        <v>1.551041626603966</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.489448056150583</v>
+        <v>1.131242306144189</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.481668232296886</v>
+        <v>1.793389972598117</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.506784546696482</v>
+        <v>1.791573121864434</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.578792328740152</v>
+        <v>1.403911827475214</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.254214178018954</v>
+        <v>1.859839979552429</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.442630064747686</v>
+        <v>1.483589554163853</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.663499234815061</v>
+        <v>1.601205976657877</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.627541943610541</v>
+        <v>1.57633275995856</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.442777824941697</v>
+        <v>1.765551594988124</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.674843121549367</v>
+        <v>1.527376312526004</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.692755719036566</v>
+        <v>1.502290640586069</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.349131560818165</v>
+        <v>1.435347313218836</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.463486853947141</v>
+        <v>1.441942753764052</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.376245191337428</v>
+        <v>1.499547995905308</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.406636506510829</v>
+        <v>1.697672964510495</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.519928218106847</v>
+        <v>1.355398041385453</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.449781129864456</v>
+        <v>1.645922773247481</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.607158885393559</v>
+        <v>1.645230980014449</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.62169577966108</v>
+        <v>1.327471946627947</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.391522689562657</v>
+        <v>1.556802244937997</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.451321349789865</v>
+        <v>1.590211852938154</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.563295747295548</v>
+        <v>1.355515042748348</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.564431677890406</v>
+        <v>1.62275727069207</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.621714625608182</v>
+        <v>1.323791724536501</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.605843449562168</v>
+        <v>1.552192191391222</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.392119845856782</v>
+        <v>1.428845979333431</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.288783335925754</v>
+        <v>1.432093990856376</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.734731946921518</v>
+        <v>1.347288029142707</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.45818146754106</v>
+        <v>1.044555351245612</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.435551360624251</v>
+        <v>1.377664866608602</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.68368259349818</v>
+        <v>1.616440917494474</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.426125278330986</v>
+        <v>1.881984479292742</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.630269090253201</v>
+        <v>1.478282093249</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.587728420431249</v>
+        <v>1.339252319052834</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.476743814871045</v>
+        <v>1.155390540439148</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.397150427555288</v>
+        <v>1.668355655172738</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.398774534372307</v>
+        <v>1.57385553999394</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.236906935037443</v>
+        <v>1.426874240344129</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.711364557843188</v>
+        <v>1.509625429603646</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.537203142412793</v>
+        <v>1.305698439471807</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.661869118835987</v>
+        <v>1.410446642739156</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.621824702887128</v>
+        <v>1.667255013667504</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.551238627456992</v>
+        <v>1.705796197457613</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.836759587825048</v>
+        <v>1.570827253145268</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.474385020465346</v>
+        <v>1.677964553188303</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.649824133327026</v>
+        <v>1.70466754638393</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.348762481198233</v>
+        <v>1.349094185986743</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.446959817720707</v>
+        <v>1.534553511245061</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.417338123713352</v>
+        <v>1.337503694585197</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.45925411807181</v>
+        <v>1.25004473318068</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.745537568887589</v>
+        <v>1.647912505009512</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.364473477017829</v>
+        <v>1.707189721258771</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.591354173861472</v>
+        <v>1.380288200598025</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.62687045624138</v>
+        <v>1.469218043743657</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.629565658734689</v>
+        <v>1.405579476782628</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.574196927625262</v>
+        <v>1.520287924340294</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.232426647789857</v>
+        <v>1.522632030945294</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.349831049422456</v>
+        <v>1.345000698935921</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.390930765892813</v>
+        <v>1.514741765489828</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.364199493781877</v>
+        <v>1.527607000216272</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.450109381220293</v>
+        <v>1.485005867708095</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.698306673012017</v>
+        <v>1.422014468491109</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.318321362533612</v>
+        <v>1.603471855008876</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.318740920122299</v>
+        <v>1.590178100452517</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.456900787158571</v>
+        <v>1.581912703191898</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <v>1.324449625256784</v>
+        <v>1.441631765413387</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.297475165380017</v>
+        <v>1.344976398474809</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.320383217075605</v>
+        <v>1.495425317009288</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.47660830269593</v>
+        <v>1.750218955154043</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.641037425683102</v>
+        <v>1.736530920628476</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.617652786673137</v>
+        <v>1.745541571611905</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.812541646958599</v>
+        <v>1.485030327646246</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.527340016100092</v>
+        <v>1.507490113446314</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.84430316848721</v>
+        <v>1.293390036243835</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.389291336051706</v>
+        <v>1.399387743512703</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.386285765829679</v>
+        <v>1.479613926735373</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.467540259982481</v>
+        <v>1.572378080938162</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.556129659678198</v>
+        <v>1.345788738294222</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.784804477889023</v>
+        <v>1.336868669070437</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.501453534688777</v>
+        <v>1.470693660871613</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.66857243938366</v>
+        <v>1.365014278490112</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.559678155543907</v>
+        <v>1.653569323186783</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.397971215712379</v>
+        <v>1.518794097045346</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.5152096103995</v>
+        <v>1.456913022881555</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.418252614278449</v>
+        <v>1.415723762615755</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.227125385272084</v>
+        <v>1.323264422004925</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.288831163277668</v>
+        <v>1.65805194115276</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.54481566668767</v>
+        <v>1.477366781965711</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.329953298461569</v>
+        <v>1.393062085910088</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.466716132130736</v>
+        <v>1.459067741973105</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.415946684192842</v>
+        <v>1.517099061838567</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.41234222325141</v>
+        <v>1.356615273827287</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.773376139914756</v>
+        <v>1.243160543562161</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.306095105523096</v>
+        <v>1.567892733564278</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.317404996012905</v>
+        <v>1.288949650590879</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.576360859820638</v>
+        <v>1.525533158554893</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.427131252067545</v>
+        <v>1.521275043975974</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F200">
-        <v>1.693660334959493</v>
+        <v>1.319909259711938</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.417085873420548</v>
+        <v>1.641293445359654</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.722630765158074</v>
+        <v>1.461768330183366</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.55731596000138</v>
+        <v>1.373466324481175</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.719555683270716</v>
+        <v>1.467500771857849</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.580074036979373</v>
+        <v>1.477710562581749</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.674327068199488</v>
+        <v>1.680418821406596</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.395457180563843</v>
+        <v>1.284716870102948</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.268272102799033</v>
+        <v>1.631332624756404</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.30423789503625</v>
+        <v>1.418740472490123</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.484585295905757</v>
+        <v>1.227292697084925</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.625383337276364</v>
+        <v>1.735171536506982</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.381063232111605</v>
+        <v>1.385721321436112</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.228992720967609</v>
+        <v>1.802617485669608</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.336037526355854</v>
+        <v>1.361893888001497</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.25018993612998</v>
+        <v>1.56189711650017</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.751932772526875</v>
+        <v>1.744460118555179</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.610009743820784</v>
+        <v>1.581017186637753</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.296345559058857</v>
+        <v>1.621516813596809</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.654388179594583</v>
+        <v>1.719439277031286</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.361123624909899</v>
+        <v>1.385808965925598</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.677420005228436</v>
+        <v>1.417968744972266</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.282533057911948</v>
+        <v>1.257102016422593</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.702583635187313</v>
+        <v>1.523477714686814</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.296876933539439</v>
+        <v>1.467636591354609</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.401952970376262</v>
+        <v>1.439122090204277</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.554747820778233</v>
+        <v>1.401901663877123</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.354106644179658</v>
+        <v>1.614653658143736</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.733140414421477</v>
+        <v>1.575659102601165</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.311425215406114</v>
+        <v>1.406892278062614</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.511024200308147</v>
+        <v>1.350644950023907</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.341369896000893</v>
+        <v>1.607381580310952</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.558963148764452</v>
+        <v>1.387644772945222</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.315898935073238</v>
+        <v>1.382415076537148</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.403659067737124</v>
+        <v>1.666415728733505</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.418895736489742</v>
+        <v>1.377643295716041</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.445689164123202</v>
+        <v>1.47910521838799</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.421343153329308</v>
+        <v>1.913807853719869</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.363495458757511</v>
+        <v>1.140984454483225</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.716420825302482</v>
+        <v>1.399390175841947</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.622660568431959</v>
+        <v>1.676451964777438</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.366203137671589</v>
+        <v>1.273707810401592</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.323822124038626</v>
+        <v>1.603150816065484</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.69201778979282</v>
+        <v>1.429687300473344</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.153408862648279</v>
+        <v>1.597696172562944</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.604252307477133</v>
+        <v>1.570582009769199</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.217028035443418</v>
+        <v>1.435075484213812</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.424893303596222</v>
+        <v>1.631861424558585</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.442633062418836</v>
+        <v>1.398731285988861</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.644711458819743</v>
+        <v>1.679559275380405</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.463429541150899</v>
+        <v>1.381064961358315</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.657623931723219</v>
+        <v>1.326794691984535</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.471548742422841</v>
+        <v>1.372043651058658</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.466014544900395</v>
+        <v>1.236929266122064</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.348256805358739</v>
+        <v>1.506802660655999</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.428453487548456</v>
+        <v>1.237709807195236</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.437909397696148</v>
+        <v>1.551032188428489</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.33972441182453</v>
+        <v>1.64839206139308</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/16_localizer.xlsx
+++ b/sequences/16_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
   </si>
   <si>
     <t>flower/flower047.jpg</t>
   </si>
   <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
     <t>dog/dog039.jpg</t>
   </si>
   <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
     <t>face/face043.jpg</t>
   </si>
   <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
     <t>dog/dog037.jpg</t>
   </si>
   <si>
-    <t>dog/dog044.jpg</t>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
   </si>
   <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
     <t>flower/flower040.jpg</t>
   </si>
   <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
     <t>face/face046.jpg</t>
   </si>
   <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
     <t>face/face038.jpg</t>
   </si>
   <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
   </si>
   <si>
     <t>dog/dog062.jpg</t>
   </si>
   <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
     <t>dog/dog051.jpg</t>
   </si>
   <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
   </si>
   <si>
     <t>dog/dog054.jpg</t>
   </si>
   <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
   </si>
   <si>
     <t>flower/flower074.jpg</t>
   </si>
   <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
-    <t>house/house079.jpg</t>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
   </si>
   <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
   </si>
   <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
-    <t>flower/flower071.jpg</t>
+    <t>flower/flower079.jpg</t>
   </si>
   <si>
     <t>dog/dog065.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>face/face081.jpg</t>
   </si>
   <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
   </si>
   <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
     <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.474982217929535</v>
+        <v>1.44674871336267</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.233116827250408</v>
+        <v>1.723451820749589</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.522039916982111</v>
+        <v>1.298721827395346</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.659937758828209</v>
+        <v>1.506562413115341</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.592959148349812</v>
+        <v>1.683882977130212</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.528416796793483</v>
+        <v>1.56712739126778</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.465040865032581</v>
+        <v>1.492538633801265</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.770147100839083</v>
+        <v>1.238106642233154</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.531206897828999</v>
+        <v>1.688008518259681</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.710609118164166</v>
+        <v>1.529993932436157</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.446853350925206</v>
+        <v>1.559934588227848</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.353941294767235</v>
+        <v>1.278135017719207</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.678253596521645</v>
+        <v>1.333415008496573</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.311778237313373</v>
+        <v>1.617314935211981</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.369075031141152</v>
+        <v>1.546471472547325</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.407309681896195</v>
+        <v>1.571611728756771</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.515352688396134</v>
+        <v>1.52109329880865</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.730310383151312</v>
+        <v>1.32290007290782</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.490361606615234</v>
+        <v>1.754296823003957</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.756540428245292</v>
+        <v>1.591489570220773</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.543245444689725</v>
+        <v>1.490732145516274</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.328871830271161</v>
+        <v>1.512274039225655</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.557129000920193</v>
+        <v>1.47231764036771</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.820191117182001</v>
+        <v>1.604239366091291</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.726257252901138</v>
+        <v>1.426346666174037</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.229958940702156</v>
+        <v>1.775242337439352</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.613920642082086</v>
+        <v>1.432672168797254</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.519660645646807</v>
+        <v>1.482091145289857</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.406586338169839</v>
+        <v>1.325957477138346</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.435596694721417</v>
+        <v>1.423068166221958</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.547447617632325</v>
+        <v>1.427703789135833</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.709719301849187</v>
+        <v>1.857878540169027</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.77061895307645</v>
+        <v>1.565868375664614</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.326285308063302</v>
+        <v>1.378478169373778</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.392084042017161</v>
+        <v>1.855360203465382</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.580432985897664</v>
+        <v>1.428548147681148</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.338252887481535</v>
+        <v>1.50078615057939</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.466385548566411</v>
+        <v>1.601764384260934</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.51563587765455</v>
+        <v>1.335438836201024</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.417799549059674</v>
+        <v>1.484851535157175</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.393390025139692</v>
+        <v>1.380826394888734</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.513429818778447</v>
+        <v>1.380553629048851</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.534665622482831</v>
+        <v>1.483291286416348</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.638576758064196</v>
+        <v>1.356791962882487</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.419971064565293</v>
+        <v>1.690556565500514</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.731389763234161</v>
+        <v>1.376420884900991</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.578261495789889</v>
+        <v>1.519713531935394</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.772875225038815</v>
+        <v>1.522323122227712</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.513789254718478</v>
+        <v>1.291934353947684</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.292986147220932</v>
+        <v>1.447964438570408</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.261275040034599</v>
+        <v>1.489985525569004</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.282237330050807</v>
+        <v>1.411706351852461</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.501943596274222</v>
+        <v>1.493932136663398</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.348306781848489</v>
+        <v>1.338416784912923</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.539975186869804</v>
+        <v>1.167023230385581</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.331538063620592</v>
+        <v>1.429482584031272</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.719683808653175</v>
+        <v>1.581683937578121</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.357160821471517</v>
+        <v>1.709416442955112</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.732689670819944</v>
+        <v>1.473857549734601</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.482860813754171</v>
+        <v>1.644200725990832</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.614373596293417</v>
+        <v>1.394239944233181</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.239017907779586</v>
+        <v>1.525123044661002</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.424250733557483</v>
+        <v>1.498582146461727</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.206272982767417</v>
+        <v>1.686218424969489</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.631129394155884</v>
+        <v>1.325133015419093</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.389867080711042</v>
+        <v>1.220679557900934</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.682369927183141</v>
+        <v>1.270203703851228</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.402574958941457</v>
+        <v>1.500620823873929</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.767173834057362</v>
+        <v>1.749173045607039</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.655456548344671</v>
+        <v>1.538598082098975</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.556191984894733</v>
+        <v>1.798654360414179</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.504956982421125</v>
+        <v>1.606383184315124</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.497459442896405</v>
+        <v>1.366744707208884</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.491286271487583</v>
+        <v>1.493113176462376</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.050657823455627</v>
+        <v>1.769444458351927</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.339251151383428</v>
+        <v>1.593165143706177</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1.518886612116073</v>
+        <v>1.44104715581906</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.59600474186782</v>
+        <v>1.440418112530826</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.534237971464153</v>
+        <v>1.446555037407982</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.639290233214744</v>
+        <v>1.462422223818826</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.586873226080002</v>
+        <v>1.437294215381581</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.537654539539283</v>
+        <v>1.669488935757377</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.51060867962973</v>
+        <v>1.263493269553462</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.318376080556231</v>
+        <v>1.515147291451276</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.26428177913515</v>
+        <v>1.37887669939063</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.463384348781648</v>
+        <v>1.69509149474215</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.592102897114798</v>
+        <v>1.544081724663922</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.772329811089174</v>
+        <v>1.551050216783736</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.22735448199003</v>
+        <v>1.612058430557789</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.539258416284027</v>
+        <v>1.60386733475775</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.399074931196938</v>
+        <v>1.602126710107363</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.383894819149324</v>
+        <v>1.764218595143258</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.460550712219913</v>
+        <v>1.526440122953557</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.86683085198761</v>
+        <v>1.55927782344704</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.536172268636442</v>
+        <v>1.293689836132316</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.30131315278156</v>
+        <v>1.371947228454486</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.451702080412859</v>
+        <v>1.886338935343162</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.485836187557945</v>
+        <v>1.418067728070753</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.644263100017804</v>
+        <v>1.309888765837393</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.192802696080354</v>
+        <v>1.30596983526591</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.551041626603966</v>
+        <v>1.401775105478953</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.131242306144189</v>
+        <v>1.246316360232691</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.793389972598117</v>
+        <v>1.421565606079477</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.791573121864434</v>
+        <v>1.401646589229438</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.403911827475214</v>
+        <v>1.459204789027591</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.859839979552429</v>
+        <v>1.371687191823296</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.483589554163853</v>
+        <v>1.411578373527977</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.601205976657877</v>
+        <v>1.649902097874141</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.57633275995856</v>
+        <v>1.535998581878235</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.765551594988124</v>
+        <v>1.288433913302476</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.527376312526004</v>
+        <v>1.598128393845684</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.502290640586069</v>
+        <v>1.488068123879519</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.435347313218836</v>
+        <v>1.566163848663244</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.441942753764052</v>
+        <v>1.632845623923738</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.499547995905308</v>
+        <v>1.534714057076571</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.697672964510495</v>
+        <v>1.77826080794154</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.355398041385453</v>
+        <v>1.602838403257692</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.645922773247481</v>
+        <v>1.41545209301502</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.645230980014449</v>
+        <v>1.343955269873566</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.327471946627947</v>
+        <v>1.618978753487879</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.556802244937997</v>
+        <v>1.77731658603946</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.590211852938154</v>
+        <v>1.38279893906001</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.355515042748348</v>
+        <v>1.505133913193896</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.62275727069207</v>
+        <v>1.680711247154794</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.323791724536501</v>
+        <v>1.440974191695328</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.552192191391222</v>
+        <v>1.704538889552309</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.428845979333431</v>
+        <v>1.470872552146276</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.432093990856376</v>
+        <v>1.544144167776996</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.347288029142707</v>
+        <v>1.574199054063594</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.044555351245612</v>
+        <v>1.536717059559678</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.377664866608602</v>
+        <v>1.392007852080864</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.616440917494474</v>
+        <v>1.195379300499532</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.881984479292742</v>
+        <v>1.677145764882875</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.478282093249</v>
+        <v>1.393411364427443</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.339252319052834</v>
+        <v>1.305895923776268</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.155390540439148</v>
+        <v>1.288662749719534</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.668355655172738</v>
+        <v>1.542807390166804</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.57385553999394</v>
+        <v>1.640397794248337</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.426874240344129</v>
+        <v>1.54979806740784</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.509625429603646</v>
+        <v>1.46119428568436</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.305698439471807</v>
+        <v>1.674373548329238</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.410446642739156</v>
+        <v>1.549850475679852</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.667255013667504</v>
+        <v>1.33376078603349</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.705796197457613</v>
+        <v>1.224032627699618</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>1.570827253145268</v>
+        <v>1.53920788855277</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.677964553188303</v>
+        <v>1.399278806406679</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.70466754638393</v>
+        <v>1.844848864870368</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.349094185986743</v>
+        <v>1.853315655506805</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.534553511245061</v>
+        <v>1.282621793046509</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.337503694585197</v>
+        <v>1.638604847410571</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.25004473318068</v>
+        <v>1.261321079121142</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.647912505009512</v>
+        <v>1.225788198912951</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.707189721258771</v>
+        <v>1.349517991181543</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.380288200598025</v>
+        <v>1.174086209091605</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.469218043743657</v>
+        <v>1.328996132715649</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.405579476782628</v>
+        <v>1.516604607283623</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.520287924340294</v>
+        <v>1.711644252329255</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.522632030945294</v>
+        <v>1.453192490068859</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.345000698935921</v>
+        <v>1.566117311845769</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.514741765489828</v>
+        <v>1.719133988948288</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.527607000216272</v>
+        <v>1.425257690840569</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.485005867708095</v>
+        <v>1.653260016854515</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.422014468491109</v>
+        <v>1.328587804498801</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.603471855008876</v>
+        <v>1.476149069856569</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.590178100452517</v>
+        <v>1.612793715434564</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.581912703191898</v>
+        <v>1.368643358699889</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.441631765413387</v>
+        <v>1.476694731164766</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.344976398474809</v>
+        <v>1.332896804633337</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.495425317009288</v>
+        <v>1.473225718730443</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.750218955154043</v>
+        <v>1.481484170384869</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.736530920628476</v>
+        <v>1.721519897462526</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.745541571611905</v>
+        <v>1.700600185178277</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.485030327646246</v>
+        <v>1.383999870658406</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.507490113446314</v>
+        <v>1.37055676484065</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.293390036243835</v>
+        <v>1.521614886762769</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.399387743512703</v>
+        <v>1.284158051080388</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.479613926735373</v>
+        <v>1.47376547476534</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.572378080938162</v>
+        <v>1.437698669477924</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.345788738294222</v>
+        <v>1.470085058260123</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.336868669070437</v>
+        <v>1.715711019345002</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.470693660871613</v>
+        <v>1.900143662572058</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.365014278490112</v>
+        <v>1.276745621330047</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.653569323186783</v>
+        <v>1.320613506441318</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.518794097045346</v>
+        <v>1.828519319890339</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.456913022881555</v>
+        <v>1.474974695273357</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.415723762615755</v>
+        <v>1.538727814450682</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.323264422004925</v>
+        <v>1.610217511940422</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.65805194115276</v>
+        <v>1.441117286785379</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.477366781965711</v>
+        <v>1.654639079021196</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.393062085910088</v>
+        <v>1.811917589845224</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.459067741973105</v>
+        <v>1.643718981932578</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.517099061838567</v>
+        <v>1.621266225037601</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.356615273827287</v>
+        <v>1.380700004750937</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.243160543562161</v>
+        <v>1.416188258744074</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.567892733564278</v>
+        <v>1.568434513315377</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.288949650590879</v>
+        <v>1.511827025140011</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.525533158554893</v>
+        <v>1.338681139811521</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.521275043975974</v>
+        <v>1.408837968786839</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F200">
-        <v>1.319909259711938</v>
+        <v>1.61312652376859</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.641293445359654</v>
+        <v>1.520688635177684</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.461768330183366</v>
+        <v>1.20088511955293</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.373466324481175</v>
+        <v>1.674827222073414</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.467500771857849</v>
+        <v>1.679759085924263</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.477710562581749</v>
+        <v>1.524017695973899</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.680418821406596</v>
+        <v>1.329134847473143</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.284716870102948</v>
+        <v>1.50457207443733</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.631332624756404</v>
+        <v>1.474779649717059</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.418740472490123</v>
+        <v>1.465450929447822</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.227292697084925</v>
+        <v>1.675560870591075</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.735171536506982</v>
+        <v>1.769961271605465</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.385721321436112</v>
+        <v>1.628529008137802</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.802617485669608</v>
+        <v>1.51667847346551</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.361893888001497</v>
+        <v>1.56365322494989</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.56189711650017</v>
+        <v>1.637459957050694</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.744460118555179</v>
+        <v>1.185678568452029</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.581017186637753</v>
+        <v>1.733345897492542</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.621516813596809</v>
+        <v>1.383199998484924</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.719439277031286</v>
+        <v>1.631494262196106</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.385808965925598</v>
+        <v>1.534904737299023</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.417968744972266</v>
+        <v>1.318281253933979</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.257102016422593</v>
+        <v>1.345684919688737</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.523477714686814</v>
+        <v>1.470494962887984</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.467636591354609</v>
+        <v>1.610334019076807</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.439122090204277</v>
+        <v>1.614846197951245</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.401901663877123</v>
+        <v>1.682783116565909</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.614653658143736</v>
+        <v>1.513918997878289</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.575659102601165</v>
+        <v>1.447774404964919</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.406892278062614</v>
+        <v>1.607432598875366</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.350644950023907</v>
+        <v>1.65200636722306</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.607381580310952</v>
+        <v>1.837419137038918</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.387644772945222</v>
+        <v>1.454760691768941</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.382415076537148</v>
+        <v>1.743896446449872</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.666415728733505</v>
+        <v>1.469955994574599</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.377643295716041</v>
+        <v>1.440133033223944</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.47910521838799</v>
+        <v>1.704334670352519</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.913807853719869</v>
+        <v>1.354588246113611</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.140984454483225</v>
+        <v>1.558807218814428</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.399390175841947</v>
+        <v>1.478036729659682</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.676451964777438</v>
+        <v>1.477709610432086</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.273707810401592</v>
+        <v>1.753357506613167</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.603150816065484</v>
+        <v>1.528159441263805</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.429687300473344</v>
+        <v>1.544782894830977</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.597696172562944</v>
+        <v>1.664441430805439</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.570582009769199</v>
+        <v>1.419029827070895</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.435075484213812</v>
+        <v>1.549457225737485</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.631861424558585</v>
+        <v>1.304781853701289</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.398731285988861</v>
+        <v>1.282831394501765</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.679559275380405</v>
+        <v>1.785835282106258</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.381064961358315</v>
+        <v>1.447853489468681</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.326794691984535</v>
+        <v>1.298172713340842</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.372043651058658</v>
+        <v>1.478212394391535</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.236929266122064</v>
+        <v>1.529114095443213</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.506802660655999</v>
+        <v>1.558160763473945</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.237709807195236</v>
+        <v>1.567558812707585</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.551032188428489</v>
+        <v>1.578294195236555</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.64839206139308</v>
+        <v>1.448601246893587</v>
       </c>
     </row>
   </sheetData>
